--- a/Survey_Results.xlsx
+++ b/Survey_Results.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Desktop\Excel_Webapp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53593807-8188-4D62-8610-09029CCBD003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C5E7FFAA-552F-4261-8994-E2DFFF5B4D17}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -81,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -302,7 +296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -496,14 +490,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485F39AA-0427-470A-BEB6-3920D962DAFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -513,28 +507,28 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -551,7 +545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -569,7 +563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -587,7 +581,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -605,7 +599,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -623,7 +617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -641,7 +635,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -656,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -667,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -678,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -689,7 +683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -700,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -711,7 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,7 +716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
@@ -733,7 +727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,7 +738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -755,7 +749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -777,7 +771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
@@ -788,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -799,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
@@ -810,7 +804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
@@ -821,7 +815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
@@ -832,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -843,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
@@ -854,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
@@ -865,7 +859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -876,7 +870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
@@ -887,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
@@ -898,7 +892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
@@ -909,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -920,7 +914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
@@ -931,7 +925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
@@ -942,7 +936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
@@ -953,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
@@ -964,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
@@ -975,7 +969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
@@ -986,7 +980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
@@ -997,7 +991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1052,7 +1046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>3</v>
       </c>
@@ -1184,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
@@ -1228,7 +1222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>3</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
@@ -1294,7 +1288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +1376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>3</v>
       </c>
@@ -1404,7 +1398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>4</v>
       </c>
@@ -1459,7 +1453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>5</v>
       </c>
@@ -1470,7 +1464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +1508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +1563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>4</v>
       </c>
@@ -1580,7 +1574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
@@ -1602,7 +1596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>6</v>
       </c>
@@ -1613,7 +1607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>4</v>
       </c>
@@ -1624,7 +1618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>6</v>
       </c>
@@ -1635,7 +1629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>4</v>
       </c>
@@ -1690,7 +1684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>4</v>
       </c>
@@ -1701,7 +1695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>6</v>
       </c>
@@ -1712,7 +1706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>7</v>
       </c>
@@ -1756,7 +1750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>5</v>
       </c>
@@ -1767,7 +1761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>6</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
@@ -1789,7 +1783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>4</v>
       </c>
@@ -1800,7 +1794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>4</v>
       </c>
@@ -1811,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>5</v>
       </c>
@@ -1833,7 +1827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>4</v>
       </c>
@@ -1844,7 +1838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>4</v>
       </c>
@@ -1866,7 +1860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +1871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>6</v>
       </c>
@@ -1888,7 +1882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>6</v>
       </c>
@@ -1932,7 +1926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>5</v>
       </c>
@@ -1943,7 +1937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
         <v>5</v>
       </c>
@@ -1954,7 +1948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +1959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
         <v>5</v>
       </c>
@@ -1976,7 +1970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +1981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>5</v>
       </c>
@@ -1998,7 +1992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>6</v>
       </c>
@@ -2020,7 +2014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
         <v>7</v>
       </c>
@@ -2031,7 +2025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +2036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>5</v>
       </c>
@@ -2053,7 +2047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
         <v>5</v>
       </c>
@@ -2064,7 +2058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>6</v>
       </c>
@@ -2075,7 +2069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
         <v>6</v>
       </c>
@@ -2119,7 +2113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +2124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
         <v>6</v>
       </c>
@@ -2141,7 +2135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
         <v>7</v>
       </c>
@@ -2152,7 +2146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="2" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
         <v>4</v>
       </c>
@@ -2174,7 +2168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>4</v>
       </c>
@@ -2207,7 +2201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
@@ -2240,7 +2234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
         <v>5</v>
       </c>
@@ -2251,7 +2245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
         <v>4</v>
       </c>
@@ -2262,7 +2256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
         <v>5</v>
       </c>
@@ -2273,7 +2267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>7</v>
       </c>
@@ -2295,7 +2289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
         <v>7</v>
       </c>
@@ -2317,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
         <v>4</v>
       </c>
@@ -2328,7 +2322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>4</v>
       </c>
@@ -2339,7 +2333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>4</v>
       </c>
@@ -2350,7 +2344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
         <v>7</v>
       </c>
@@ -2361,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="2" t="s">
         <v>7</v>
       </c>
@@ -2372,7 +2366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
         <v>7</v>
       </c>
@@ -2383,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
         <v>4</v>
       </c>
@@ -2394,7 +2388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
         <v>5</v>
       </c>
@@ -2416,7 +2410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>5</v>
       </c>
@@ -2427,7 +2421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
         <v>6</v>
       </c>
@@ -2438,7 +2432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
         <v>6</v>
       </c>
@@ -2449,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="2" t="s">
         <v>6</v>
       </c>
@@ -2460,7 +2454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
         <v>4</v>
       </c>
@@ -2471,7 +2465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
         <v>6</v>
       </c>
@@ -2482,7 +2476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>4</v>
       </c>
@@ -2493,7 +2487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>4</v>
       </c>
@@ -2504,7 +2498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>6</v>
       </c>
@@ -2537,7 +2531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>5</v>
       </c>
@@ -2548,7 +2542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>6</v>
       </c>
@@ -2570,7 +2564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="2" t="s">
         <v>4</v>
       </c>
@@ -2581,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="2" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +2586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="2" t="s">
         <v>4</v>
       </c>
@@ -2603,7 +2597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
         <v>4</v>
       </c>
@@ -2614,7 +2608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="2" t="s">
         <v>4</v>
       </c>
@@ -2625,7 +2619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="2" t="s">
         <v>5</v>
       </c>
@@ -2636,7 +2630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>5</v>
       </c>
@@ -2647,7 +2641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>5</v>
       </c>
@@ -2658,7 +2652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
         <v>7</v>
       </c>
@@ -2669,7 +2663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>6</v>
       </c>
@@ -2680,7 +2674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="2" t="s">
         <v>7</v>
       </c>
@@ -2691,7 +2685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="2" t="s">
         <v>7</v>
       </c>
@@ -2702,7 +2696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>5</v>
       </c>
@@ -2713,7 +2707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
         <v>5</v>
       </c>
@@ -2724,7 +2718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="2" t="s">
         <v>6</v>
       </c>
@@ -2735,7 +2729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
         <v>4</v>
       </c>
@@ -2746,7 +2740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="2" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="2" t="s">
         <v>5</v>
       </c>
@@ -2768,7 +2762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="2" t="s">
         <v>5</v>
       </c>
@@ -2779,7 +2773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="2" t="s">
         <v>4</v>
       </c>
@@ -2790,7 +2784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="2" t="s">
         <v>4</v>
       </c>
@@ -2801,7 +2795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="2" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
         <v>4</v>
       </c>
@@ -2823,7 +2817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
         <v>6</v>
       </c>
@@ -2834,7 +2828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>4</v>
       </c>
@@ -2845,7 +2839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="2" t="s">
         <v>4</v>
       </c>
@@ -2856,7 +2850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
         <v>7</v>
       </c>
@@ -2867,7 +2861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="2" t="s">
         <v>7</v>
       </c>
@@ -2878,7 +2872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="2" t="s">
         <v>7</v>
       </c>
@@ -2889,7 +2883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="2" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +2894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="2" t="s">
         <v>5</v>
       </c>
@@ -2911,7 +2905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="2" t="s">
         <v>4</v>
       </c>
@@ -2922,7 +2916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="2" t="s">
         <v>7</v>
       </c>
@@ -2933,7 +2927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="2" t="s">
         <v>6</v>
       </c>
@@ -2944,7 +2938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="2" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +2949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="2" t="s">
         <v>5</v>
       </c>
@@ -2966,7 +2960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="2" t="s">
         <v>4</v>
       </c>
@@ -2977,7 +2971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="2" t="s">
         <v>4</v>
       </c>
@@ -2988,7 +2982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="2" t="s">
         <v>6</v>
       </c>
@@ -2999,7 +2993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="2" t="s">
         <v>4</v>
       </c>
@@ -3010,7 +3004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
         <v>6</v>
       </c>
@@ -3021,7 +3015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
         <v>7</v>
       </c>
@@ -3032,7 +3026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
         <v>5</v>
       </c>
@@ -3043,7 +3037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="2" t="s">
         <v>5</v>
       </c>
@@ -3054,7 +3048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="2" t="s">
         <v>5</v>
       </c>
@@ -3065,7 +3059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
         <v>5</v>
       </c>
@@ -3076,7 +3070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="2" t="s">
         <v>6</v>
       </c>
@@ -3087,7 +3081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="2" t="s">
         <v>5</v>
       </c>
@@ -3098,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
         <v>4</v>
       </c>
@@ -3109,7 +3103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
         <v>4</v>
       </c>
@@ -3120,7 +3114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
         <v>4</v>
       </c>
@@ -3131,7 +3125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
         <v>4</v>
       </c>
@@ -3142,7 +3136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
         <v>6</v>
       </c>
@@ -3153,7 +3147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
         <v>6</v>
       </c>
@@ -3164,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
         <v>4</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="2" t="s">
         <v>4</v>
       </c>
@@ -3186,7 +3180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
         <v>4</v>
       </c>
@@ -3197,7 +3191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="2" t="s">
         <v>6</v>
       </c>
@@ -3208,7 +3202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="2" t="s">
         <v>6</v>
       </c>
@@ -3219,7 +3213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="2" t="s">
         <v>4</v>
       </c>
@@ -3230,7 +3224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +3235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="2" t="s">
         <v>4</v>
       </c>
@@ -3252,7 +3246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
         <v>4</v>
       </c>
@@ -3263,7 +3257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="2" t="s">
         <v>6</v>
       </c>
@@ -3274,7 +3268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="2" t="s">
         <v>4</v>
       </c>
@@ -3285,7 +3279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="2" t="s">
         <v>7</v>
       </c>
@@ -3296,7 +3290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="2" t="s">
         <v>4</v>
       </c>
@@ -3307,7 +3301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="2" t="s">
         <v>4</v>
       </c>
@@ -3318,7 +3312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="2" t="s">
         <v>4</v>
       </c>
@@ -3329,7 +3323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="2" t="s">
         <v>5</v>
       </c>
@@ -3340,7 +3334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
         <v>5</v>
       </c>
@@ -3351,7 +3345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="2" t="s">
         <v>4</v>
       </c>
@@ -3362,7 +3356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
         <v>5</v>
       </c>
@@ -3373,7 +3367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="2" t="s">
         <v>6</v>
       </c>
@@ -3384,7 +3378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="2" t="s">
         <v>6</v>
       </c>
@@ -3395,7 +3389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="2" t="s">
         <v>6</v>
       </c>
@@ -3406,7 +3400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="2" t="s">
         <v>7</v>
       </c>
@@ -3417,7 +3411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="2" t="s">
         <v>6</v>
       </c>
@@ -3428,7 +3422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="2" t="s">
         <v>6</v>
       </c>
@@ -3439,7 +3433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="2" t="s">
         <v>7</v>
       </c>
@@ -3450,7 +3444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" s="2" t="s">
         <v>6</v>
       </c>
@@ -3461,7 +3455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="2" t="s">
         <v>5</v>
       </c>
@@ -3472,7 +3466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="2" t="s">
         <v>7</v>
       </c>
@@ -3483,7 +3477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="2" t="s">
         <v>5</v>
       </c>
@@ -3494,7 +3488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="2" t="s">
         <v>4</v>
       </c>
@@ -3505,7 +3499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" s="2" t="s">
         <v>7</v>
       </c>
@@ -3516,7 +3510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" s="2" t="s">
         <v>6</v>
       </c>
@@ -3527,7 +3521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
         <v>4</v>
       </c>
@@ -3538,7 +3532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="2" t="s">
         <v>4</v>
       </c>
@@ -3549,7 +3543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
         <v>6</v>
       </c>
@@ -3560,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="2" t="s">
         <v>5</v>
       </c>
@@ -3571,7 +3565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="2" t="s">
         <v>5</v>
       </c>
@@ -3582,7 +3576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="2" t="s">
         <v>7</v>
       </c>
@@ -3593,7 +3587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="2" t="s">
         <v>4</v>
       </c>
@@ -3604,7 +3598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="2" t="s">
         <v>4</v>
       </c>
@@ -3615,7 +3609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="2" t="s">
         <v>7</v>
       </c>
@@ -3626,7 +3620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="2" t="s">
         <v>4</v>
       </c>
@@ -3637,7 +3631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="2" t="s">
         <v>5</v>
       </c>
@@ -3648,7 +3642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="2" t="s">
         <v>4</v>
       </c>
@@ -3659,7 +3653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="2" t="s">
         <v>4</v>
       </c>
@@ -3670,7 +3664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="2" t="s">
         <v>5</v>
       </c>
@@ -3681,7 +3675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="2" t="s">
         <v>5</v>
       </c>
@@ -3692,7 +3686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="2" t="s">
         <v>6</v>
       </c>
@@ -3703,7 +3697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="2" t="s">
         <v>6</v>
       </c>
@@ -3714,7 +3708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="2" t="s">
         <v>5</v>
       </c>
@@ -3725,7 +3719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="2" t="s">
         <v>4</v>
       </c>
@@ -3736,7 +3730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="2" t="s">
         <v>4</v>
       </c>
@@ -3747,7 +3741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="2" t="s">
         <v>4</v>
       </c>
@@ -3758,7 +3752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="2" t="s">
         <v>4</v>
       </c>
@@ -3769,7 +3763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="2" t="s">
         <v>5</v>
       </c>
@@ -3780,7 +3774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="2" t="s">
         <v>4</v>
       </c>
@@ -3791,7 +3785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="2" t="s">
         <v>4</v>
       </c>
@@ -3802,7 +3796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="2" t="s">
         <v>4</v>
       </c>
@@ -3813,7 +3807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="2" t="s">
         <v>6</v>
       </c>
@@ -3824,7 +3818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="2" t="s">
         <v>4</v>
       </c>
@@ -3835,7 +3829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="2" t="s">
         <v>4</v>
       </c>
@@ -3846,7 +3840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="2" t="s">
         <v>6</v>
       </c>
@@ -3857,7 +3851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="2" t="s">
         <v>4</v>
       </c>
@@ -3868,7 +3862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="2" t="s">
         <v>6</v>
       </c>
@@ -3879,7 +3873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="2" t="s">
         <v>6</v>
       </c>
@@ -3890,7 +3884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="2" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +3895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="2" t="s">
         <v>5</v>
       </c>
@@ -3912,7 +3906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="2" t="s">
         <v>7</v>
       </c>
@@ -3923,7 +3917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="2" t="s">
         <v>6</v>
       </c>
@@ -3934,7 +3928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="2" t="s">
         <v>5</v>
       </c>
@@ -3945,7 +3939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="2" t="s">
         <v>7</v>
       </c>
@@ -3956,7 +3950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="2" t="s">
         <v>4</v>
       </c>
@@ -3967,7 +3961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="2" t="s">
         <v>4</v>
       </c>
@@ -3978,7 +3972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="2" t="s">
         <v>6</v>
       </c>
@@ -3989,7 +3983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
         <v>4</v>
       </c>
@@ -4000,7 +3994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="2" t="s">
         <v>6</v>
       </c>
@@ -4011,7 +4005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="2" t="s">
         <v>4</v>
       </c>
@@ -4022,7 +4016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="2" t="s">
         <v>7</v>
       </c>
@@ -4033,7 +4027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" s="2" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +4038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="2" t="s">
         <v>4</v>
       </c>
@@ -4055,7 +4049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="2" t="s">
         <v>7</v>
       </c>
@@ -4066,7 +4060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="2" t="s">
         <v>7</v>
       </c>
@@ -4077,7 +4071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" s="2" t="s">
         <v>5</v>
       </c>
@@ -4088,7 +4082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="2" t="s">
         <v>6</v>
       </c>
@@ -4099,7 +4093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="2" t="s">
         <v>4</v>
       </c>
@@ -4110,7 +4104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="2" t="s">
         <v>4</v>
       </c>
@@ -4121,7 +4115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="2" t="s">
         <v>4</v>
       </c>
@@ -4132,7 +4126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="2" t="s">
         <v>7</v>
       </c>
@@ -4143,7 +4137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="2" t="s">
         <v>4</v>
       </c>
@@ -4154,7 +4148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="2" t="s">
         <v>5</v>
       </c>
@@ -4165,7 +4159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" s="2" t="s">
         <v>6</v>
       </c>
@@ -4176,7 +4170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="2" t="s">
         <v>4</v>
       </c>
@@ -4187,7 +4181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="2" t="s">
         <v>5</v>
       </c>
@@ -4198,7 +4192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="2" t="s">
         <v>4</v>
       </c>
@@ -4209,7 +4203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="2" t="s">
         <v>5</v>
       </c>
@@ -4220,7 +4214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="2" t="s">
         <v>7</v>
       </c>
@@ -4231,7 +4225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="2" t="s">
         <v>4</v>
       </c>
@@ -4242,7 +4236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" s="2" t="s">
         <v>4</v>
       </c>
@@ -4253,7 +4247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" s="2" t="s">
         <v>5</v>
       </c>
@@ -4264,7 +4258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" s="2" t="s">
         <v>5</v>
       </c>
@@ -4275,7 +4269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" s="2" t="s">
         <v>4</v>
       </c>
@@ -4286,7 +4280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" s="2" t="s">
         <v>5</v>
       </c>
@@ -4297,7 +4291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" s="2" t="s">
         <v>4</v>
       </c>
@@ -4308,7 +4302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" s="2" t="s">
         <v>5</v>
       </c>
@@ -4319,7 +4313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="2" t="s">
         <v>4</v>
       </c>
@@ -4330,7 +4324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" s="2" t="s">
         <v>5</v>
       </c>
@@ -4341,7 +4335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" s="2" t="s">
         <v>4</v>
       </c>
@@ -4352,7 +4346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="2" t="s">
         <v>5</v>
       </c>
@@ -4363,7 +4357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="2" t="s">
         <v>7</v>
       </c>
@@ -4374,7 +4368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="2" t="s">
         <v>5</v>
       </c>
@@ -4385,7 +4379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" s="2" t="s">
         <v>7</v>
       </c>
@@ -4396,7 +4390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="2" t="s">
         <v>4</v>
       </c>
@@ -4407,7 +4401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" s="2" t="s">
         <v>7</v>
       </c>
@@ -4418,7 +4412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="2" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +4423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="2" t="s">
         <v>5</v>
       </c>
@@ -4440,7 +4434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="2" t="s">
         <v>4</v>
       </c>
@@ -4451,7 +4445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" s="2" t="s">
         <v>4</v>
       </c>
@@ -4462,7 +4456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="2" t="s">
         <v>7</v>
       </c>
@@ -4473,7 +4467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="2" t="s">
         <v>5</v>
       </c>
@@ -4484,7 +4478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" s="2" t="s">
         <v>4</v>
       </c>
@@ -4495,7 +4489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="2" t="s">
         <v>4</v>
       </c>
@@ -4506,7 +4500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" s="2" t="s">
         <v>5</v>
       </c>
@@ -4517,7 +4511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="2" t="s">
         <v>4</v>
       </c>
@@ -4528,7 +4522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="2" t="s">
         <v>5</v>
       </c>
@@ -4539,7 +4533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="2" t="s">
         <v>4</v>
       </c>
@@ -4550,7 +4544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" s="2" t="s">
         <v>5</v>
       </c>
@@ -4561,7 +4555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="2" t="s">
         <v>4</v>
       </c>
@@ -4572,7 +4566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="2" t="s">
         <v>7</v>
       </c>
@@ -4583,7 +4577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="2" t="s">
         <v>5</v>
       </c>
@@ -4594,7 +4588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" s="2" t="s">
         <v>7</v>
       </c>
@@ -4605,7 +4599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" s="2" t="s">
         <v>5</v>
       </c>
@@ -4616,7 +4610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" s="2" t="s">
         <v>5</v>
       </c>
@@ -4627,7 +4621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" s="2" t="s">
         <v>5</v>
       </c>
@@ -4638,7 +4632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" s="2" t="s">
         <v>5</v>
       </c>
@@ -4649,7 +4643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" s="2" t="s">
         <v>4</v>
       </c>
@@ -4660,7 +4654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" s="2" t="s">
         <v>4</v>
       </c>
@@ -4671,7 +4665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" s="2" t="s">
         <v>4</v>
       </c>
@@ -4682,7 +4676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" s="2" t="s">
         <v>7</v>
       </c>
@@ -4693,7 +4687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" s="2" t="s">
         <v>4</v>
       </c>
@@ -4704,7 +4698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" s="2" t="s">
         <v>7</v>
       </c>
@@ -4715,7 +4709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" s="2" t="s">
         <v>5</v>
       </c>
@@ -4726,7 +4720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" s="2" t="s">
         <v>4</v>
       </c>
@@ -4737,7 +4731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" s="2" t="s">
         <v>4</v>
       </c>
@@ -4748,7 +4742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" s="2" t="s">
         <v>7</v>
       </c>
@@ -4759,7 +4753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" s="2" t="s">
         <v>5</v>
       </c>
@@ -4770,7 +4764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" s="2" t="s">
         <v>4</v>
       </c>
@@ -4781,7 +4775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" s="2" t="s">
         <v>5</v>
       </c>
@@ -4792,7 +4786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="2" t="s">
         <v>5</v>
       </c>
@@ -4803,7 +4797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" s="2" t="s">
         <v>5</v>
       </c>
@@ -4814,7 +4808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" s="2" t="s">
         <v>5</v>
       </c>
@@ -4825,7 +4819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" s="2" t="s">
         <v>7</v>
       </c>
@@ -4836,7 +4830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" s="2" t="s">
         <v>4</v>
       </c>
@@ -4847,7 +4841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" s="2" t="s">
         <v>7</v>
       </c>
@@ -4858,7 +4852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" s="2" t="s">
         <v>5</v>
       </c>
@@ -4869,7 +4863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" s="2" t="s">
         <v>4</v>
       </c>
@@ -4880,7 +4874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" s="2" t="s">
         <v>4</v>
       </c>
@@ -4891,7 +4885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" s="2" t="s">
         <v>5</v>
       </c>
@@ -4902,7 +4896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" s="2" t="s">
         <v>4</v>
       </c>
@@ -4913,7 +4907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" s="2" t="s">
         <v>4</v>
       </c>
@@ -4924,7 +4918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" s="2" t="s">
         <v>5</v>
       </c>
@@ -4935,7 +4929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" s="2" t="s">
         <v>5</v>
       </c>
@@ -4946,7 +4940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" s="2" t="s">
         <v>4</v>
       </c>
@@ -4957,7 +4951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" s="2" t="s">
         <v>5</v>
       </c>
@@ -4968,7 +4962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" s="2" t="s">
         <v>7</v>
       </c>
@@ -4979,7 +4973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" s="2" t="s">
         <v>4</v>
       </c>
@@ -4990,7 +4984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" s="2" t="s">
         <v>5</v>
       </c>
@@ -5001,7 +4995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" s="2" t="s">
         <v>5</v>
       </c>
@@ -5012,7 +5006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" s="2" t="s">
         <v>4</v>
       </c>
@@ -5023,7 +5017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" s="2" t="s">
         <v>5</v>
       </c>
@@ -5034,7 +5028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" s="2" t="s">
         <v>5</v>
       </c>
@@ -5045,7 +5039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" s="2" t="s">
         <v>7</v>
       </c>
@@ -5056,7 +5050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" s="2" t="s">
         <v>5</v>
       </c>
@@ -5067,7 +5061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" s="2" t="s">
         <v>5</v>
       </c>
@@ -5078,7 +5072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" s="2" t="s">
         <v>5</v>
       </c>
@@ -5089,7 +5083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" s="2" t="s">
         <v>5</v>
       </c>
@@ -5100,7 +5094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" s="2" t="s">
         <v>4</v>
       </c>
@@ -5111,7 +5105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" s="2" t="s">
         <v>4</v>
       </c>
@@ -5122,7 +5116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" s="2" t="s">
         <v>4</v>
       </c>
@@ -5133,7 +5127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" s="2" t="s">
         <v>5</v>
       </c>
@@ -5144,7 +5138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" s="2" t="s">
         <v>4</v>
       </c>
@@ -5155,7 +5149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" s="2" t="s">
         <v>4</v>
       </c>
@@ -5166,7 +5160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" s="2" t="s">
         <v>4</v>
       </c>
@@ -5177,7 +5171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" s="2" t="s">
         <v>5</v>
       </c>
@@ -5188,7 +5182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" s="2" t="s">
         <v>7</v>
       </c>
@@ -5199,7 +5193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" s="2" t="s">
         <v>5</v>
       </c>
@@ -5210,7 +5204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" s="2" t="s">
         <v>5</v>
       </c>
@@ -5221,7 +5215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" s="2" t="s">
         <v>4</v>
       </c>
@@ -5232,7 +5226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" s="2" t="s">
         <v>5</v>
       </c>
@@ -5243,7 +5237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" s="2" t="s">
         <v>4</v>
       </c>
@@ -5254,7 +5248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" s="2" t="s">
         <v>5</v>
       </c>
@@ -5265,7 +5259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" s="2" t="s">
         <v>5</v>
       </c>
@@ -5276,7 +5270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" s="2" t="s">
         <v>5</v>
       </c>
@@ -5287,7 +5281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" s="2" t="s">
         <v>7</v>
       </c>
@@ -5298,7 +5292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" s="2" t="s">
         <v>7</v>
       </c>
@@ -5309,7 +5303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" s="2" t="s">
         <v>5</v>
       </c>
@@ -5320,7 +5314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" s="2" t="s">
         <v>5</v>
       </c>
@@ -5331,7 +5325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" s="2" t="s">
         <v>5</v>
       </c>
@@ -5342,7 +5336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" s="2" t="s">
         <v>7</v>
       </c>
@@ -5353,7 +5347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" s="2" t="s">
         <v>4</v>
       </c>
@@ -5364,7 +5358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" s="2" t="s">
         <v>7</v>
       </c>
@@ -5375,7 +5369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" s="2" t="s">
         <v>7</v>
       </c>
@@ -5386,7 +5380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" s="2" t="s">
         <v>7</v>
       </c>
@@ -5397,7 +5391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" s="2" t="s">
         <v>5</v>
       </c>
@@ -5408,7 +5402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" s="2" t="s">
         <v>5</v>
       </c>
@@ -5419,7 +5413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" s="2" t="s">
         <v>5</v>
       </c>
@@ -5430,7 +5424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B445" s="2" t="s">
         <v>5</v>
       </c>
@@ -5441,7 +5435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B446" s="2" t="s">
         <v>5</v>
       </c>
@@ -5452,7 +5446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" s="2" t="s">
         <v>7</v>
       </c>
@@ -5463,7 +5457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" s="2" t="s">
         <v>4</v>
       </c>
@@ -5474,7 +5468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="2" t="s">
         <v>4</v>
       </c>
@@ -5485,7 +5479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="2" t="s">
         <v>4</v>
       </c>
@@ -5496,7 +5490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="2" t="s">
         <v>4</v>
       </c>
@@ -5507,7 +5501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="2" t="s">
         <v>7</v>
       </c>
@@ -5518,7 +5512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="2" t="s">
         <v>5</v>
       </c>
@@ -5529,7 +5523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="2" t="s">
         <v>5</v>
       </c>
@@ -5540,7 +5534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="2" t="s">
         <v>4</v>
       </c>
@@ -5551,7 +5545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" s="2" t="s">
         <v>4</v>
       </c>
@@ -5562,7 +5556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="2" t="s">
         <v>4</v>
       </c>
@@ -5573,7 +5567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" s="2" t="s">
         <v>5</v>
       </c>
@@ -5584,7 +5578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" s="2" t="s">
         <v>5</v>
       </c>
@@ -5595,7 +5589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" s="2" t="s">
         <v>4</v>
       </c>
@@ -5606,7 +5600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B461" s="2" t="s">
         <v>5</v>
       </c>
@@ -5617,7 +5611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B462" s="2" t="s">
         <v>4</v>
       </c>
@@ -5628,7 +5622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B463" s="2" t="s">
         <v>7</v>
       </c>
@@ -5639,7 +5633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B464" s="2" t="s">
         <v>5</v>
       </c>
@@ -5650,7 +5644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B465" s="2" t="s">
         <v>5</v>
       </c>
@@ -5661,7 +5655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B466" s="2" t="s">
         <v>5</v>
       </c>
@@ -5672,7 +5666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B467" s="2" t="s">
         <v>4</v>
       </c>
@@ -5683,7 +5677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B468" s="2" t="s">
         <v>4</v>
       </c>
@@ -5694,7 +5688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" s="2" t="s">
         <v>7</v>
       </c>
@@ -5705,7 +5699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B470" s="2" t="s">
         <v>5</v>
       </c>
@@ -5716,7 +5710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" s="2" t="s">
         <v>5</v>
       </c>
@@ -5727,7 +5721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" s="2" t="s">
         <v>7</v>
       </c>
@@ -5738,7 +5732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" s="2" t="s">
         <v>5</v>
       </c>
@@ -5749,7 +5743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" s="2" t="s">
         <v>5</v>
       </c>
@@ -5760,7 +5754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B475" s="2" t="s">
         <v>4</v>
       </c>
@@ -5771,7 +5765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" s="2" t="s">
         <v>4</v>
       </c>
@@ -5782,7 +5776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" s="2" t="s">
         <v>4</v>
       </c>
@@ -5793,7 +5787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" s="2" t="s">
         <v>7</v>
       </c>
@@ -5804,7 +5798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B479" s="2" t="s">
         <v>5</v>
       </c>
@@ -5815,7 +5809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B480" s="2" t="s">
         <v>5</v>
       </c>
@@ -5826,7 +5820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" s="2" t="s">
         <v>5</v>
       </c>
@@ -5837,7 +5831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B482" s="2" t="s">
         <v>5</v>
       </c>
@@ -5848,7 +5842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B483" s="2" t="s">
         <v>7</v>
       </c>
@@ -5859,7 +5853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" s="2" t="s">
         <v>4</v>
       </c>
@@ -5870,7 +5864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B485" s="2" t="s">
         <v>4</v>
       </c>
@@ -5881,7 +5875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B486" s="2" t="s">
         <v>4</v>
       </c>
@@ -5892,7 +5886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" s="2" t="s">
         <v>7</v>
       </c>
@@ -5903,7 +5897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" s="2" t="s">
         <v>5</v>
       </c>
@@ -5914,7 +5908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" s="2" t="s">
         <v>4</v>
       </c>
@@ -5925,7 +5919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B490" s="2" t="s">
         <v>4</v>
       </c>
@@ -5936,7 +5930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" s="2" t="s">
         <v>5</v>
       </c>
@@ -5947,7 +5941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" s="2" t="s">
         <v>5</v>
       </c>
@@ -5958,7 +5952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" s="2" t="s">
         <v>4</v>
       </c>
@@ -5969,7 +5963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B494" s="2" t="s">
         <v>4</v>
       </c>
@@ -5980,7 +5974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" s="2" t="s">
         <v>7</v>
       </c>
@@ -5991,7 +5985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" s="2" t="s">
         <v>7</v>
       </c>
@@ -6002,7 +5996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B497" s="2" t="s">
         <v>5</v>
       </c>
@@ -6013,7 +6007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B498" s="2" t="s">
         <v>5</v>
       </c>
@@ -6024,7 +6018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B499" s="2" t="s">
         <v>5</v>
       </c>
@@ -6035,7 +6029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B500" s="2" t="s">
         <v>4</v>
       </c>
@@ -6046,7 +6040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B501" s="2" t="s">
         <v>5</v>
       </c>
@@ -6057,7 +6051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B502" s="2" t="s">
         <v>7</v>
       </c>
@@ -6068,7 +6062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B503" s="2" t="s">
         <v>7</v>
       </c>
@@ -6079,7 +6073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B504" s="2" t="s">
         <v>7</v>
       </c>
@@ -6090,7 +6084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B505" s="2" t="s">
         <v>4</v>
       </c>
@@ -6101,7 +6095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B506" s="2" t="s">
         <v>4</v>
       </c>
@@ -6112,7 +6106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B507" s="2" t="s">
         <v>5</v>
       </c>
@@ -6123,7 +6117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="508" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B508" s="2" t="s">
         <v>5</v>
       </c>
@@ -6134,7 +6128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B509" s="2" t="s">
         <v>4</v>
       </c>
@@ -6145,7 +6139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B510" s="2" t="s">
         <v>4</v>
       </c>
@@ -6156,7 +6150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B511" s="2" t="s">
         <v>5</v>
       </c>
@@ -6167,7 +6161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B512" s="2" t="s">
         <v>5</v>
       </c>
@@ -6178,7 +6172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B513" s="2" t="s">
         <v>4</v>
       </c>
@@ -6189,7 +6183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B514" s="2" t="s">
         <v>5</v>
       </c>
@@ -6200,7 +6194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B515" s="2" t="s">
         <v>4</v>
       </c>
@@ -6211,7 +6205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B516" s="2" t="s">
         <v>4</v>
       </c>
@@ -6222,7 +6216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B517" s="2" t="s">
         <v>4</v>
       </c>
@@ -6233,7 +6227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B518" s="2" t="s">
         <v>4</v>
       </c>
@@ -6244,7 +6238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B519" s="2" t="s">
         <v>5</v>
       </c>
@@ -6255,7 +6249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B520" s="2" t="s">
         <v>4</v>
       </c>
@@ -6266,7 +6260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B521" s="2" t="s">
         <v>4</v>
       </c>
@@ -6277,7 +6271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B522" s="2" t="s">
         <v>4</v>
       </c>
@@ -6288,7 +6282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="523" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B523" s="2" t="s">
         <v>5</v>
       </c>
@@ -6299,7 +6293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B524" s="2" t="s">
         <v>5</v>
       </c>
@@ -6310,7 +6304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="525" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B525" s="2" t="s">
         <v>7</v>
       </c>
@@ -6321,7 +6315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B526" s="2" t="s">
         <v>5</v>
       </c>
@@ -6332,7 +6326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B527" s="2" t="s">
         <v>5</v>
       </c>
@@ -6343,7 +6337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B528" s="2" t="s">
         <v>5</v>
       </c>
@@ -6354,7 +6348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B529" s="2" t="s">
         <v>5</v>
       </c>
@@ -6365,7 +6359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B530" s="2" t="s">
         <v>4</v>
       </c>
@@ -6376,7 +6370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B531" s="2" t="s">
         <v>4</v>
       </c>
@@ -6387,7 +6381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B532" s="2" t="s">
         <v>4</v>
       </c>
@@ -6398,7 +6392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B533" s="2" t="s">
         <v>7</v>
       </c>
@@ -6409,7 +6403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B534" s="2" t="s">
         <v>5</v>
       </c>
@@ -6420,7 +6414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="535" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B535" s="2" t="s">
         <v>4</v>
       </c>
@@ -6431,7 +6425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B536" s="2" t="s">
         <v>4</v>
       </c>
@@ -6442,7 +6436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B537" s="2" t="s">
         <v>4</v>
       </c>
@@ -6453,7 +6447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="538" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" s="2" t="s">
         <v>7</v>
       </c>
@@ -6464,7 +6458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B539" s="2" t="s">
         <v>5</v>
       </c>
@@ -6475,7 +6469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B540" s="2" t="s">
         <v>5</v>
       </c>
@@ -6486,7 +6480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" s="2" t="s">
         <v>7</v>
       </c>
@@ -6497,7 +6491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B542" s="2" t="s">
         <v>7</v>
       </c>
@@ -6508,7 +6502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" s="2" t="s">
         <v>4</v>
       </c>
@@ -6519,7 +6513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B544" s="2" t="s">
         <v>5</v>
       </c>
@@ -6530,7 +6524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B545" s="2" t="s">
         <v>4</v>
       </c>
@@ -6541,7 +6535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B546" s="2" t="s">
         <v>4</v>
       </c>
@@ -6552,7 +6546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B547" s="2" t="s">
         <v>5</v>
       </c>
@@ -6563,7 +6557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B548" s="2" t="s">
         <v>5</v>
       </c>
@@ -6574,7 +6568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="549" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B549" s="2" t="s">
         <v>3</v>
       </c>
@@ -6585,7 +6579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B550" s="2" t="s">
         <v>5</v>
       </c>
@@ -6596,7 +6590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B551" s="2" t="s">
         <v>4</v>
       </c>
@@ -6607,7 +6601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B552" s="2" t="s">
         <v>5</v>
       </c>
@@ -6618,7 +6612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B553" s="2" t="s">
         <v>7</v>
       </c>
@@ -6629,7 +6623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B554" s="2" t="s">
         <v>3</v>
       </c>
@@ -6640,7 +6634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="555" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B555" s="2" t="s">
         <v>7</v>
       </c>
@@ -6651,7 +6645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B556" s="2" t="s">
         <v>5</v>
       </c>
@@ -6662,7 +6656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="557" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B557" s="2" t="s">
         <v>3</v>
       </c>
@@ -6673,7 +6667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B558" s="2" t="s">
         <v>7</v>
       </c>
@@ -6684,7 +6678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B559" s="2" t="s">
         <v>4</v>
       </c>
@@ -6695,7 +6689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B560" s="2" t="s">
         <v>7</v>
       </c>
@@ -6706,7 +6700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B561" s="2" t="s">
         <v>5</v>
       </c>
@@ -6717,7 +6711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B562" s="2" t="s">
         <v>5</v>
       </c>
@@ -6728,7 +6722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B563" s="2" t="s">
         <v>7</v>
       </c>
@@ -6739,7 +6733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B564" s="2" t="s">
         <v>4</v>
       </c>
@@ -6750,7 +6744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B565" s="2" t="s">
         <v>5</v>
       </c>
@@ -6761,7 +6755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="566" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B566" s="2" t="s">
         <v>5</v>
       </c>
@@ -6772,7 +6766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B567" s="2" t="s">
         <v>7</v>
       </c>
@@ -6783,7 +6777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="568" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B568" s="2" t="s">
         <v>5</v>
       </c>
@@ -6794,7 +6788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="569" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B569" s="2" t="s">
         <v>5</v>
       </c>
@@ -6805,7 +6799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B570" s="2" t="s">
         <v>4</v>
       </c>
@@ -6816,7 +6810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B571" s="2" t="s">
         <v>4</v>
       </c>
@@ -6827,7 +6821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="572" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B572" s="2" t="s">
         <v>7</v>
       </c>
@@ -6838,7 +6832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B573" s="2" t="s">
         <v>7</v>
       </c>
@@ -6849,7 +6843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B574" s="2" t="s">
         <v>7</v>
       </c>
@@ -6860,7 +6854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B575" s="2" t="s">
         <v>4</v>
       </c>
@@ -6871,7 +6865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B576" s="2" t="s">
         <v>4</v>
       </c>
@@ -6882,7 +6876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B577" s="2" t="s">
         <v>5</v>
       </c>
@@ -6893,7 +6887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="2" t="s">
         <v>5</v>
       </c>
@@ -6904,7 +6898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="579" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="2" t="s">
         <v>3</v>
       </c>
@@ -6915,7 +6909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="2" t="s">
         <v>7</v>
       </c>
@@ -6926,7 +6920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="581" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="2" t="s">
         <v>4</v>
       </c>
@@ -6937,7 +6931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B582" s="2" t="s">
         <v>5</v>
       </c>
@@ -6948,7 +6942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="583" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="2" t="s">
         <v>4</v>
       </c>
@@ -6959,7 +6953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B584" s="2" t="s">
         <v>3</v>
       </c>
@@ -6970,7 +6964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="585" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B585" s="2" t="s">
         <v>4</v>
       </c>
@@ -6981,7 +6975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="586" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B586" s="2" t="s">
         <v>4</v>
       </c>
@@ -6992,7 +6986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B587" s="2" t="s">
         <v>5</v>
       </c>
@@ -7003,7 +6997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="588" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="2" t="s">
         <v>3</v>
       </c>
@@ -7014,7 +7008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="2" t="s">
         <v>4</v>
       </c>
@@ -7025,7 +7019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="2" t="s">
         <v>7</v>
       </c>
@@ -7036,7 +7030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="2" t="s">
         <v>4</v>
       </c>
@@ -7047,7 +7041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="592" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="2" t="s">
         <v>3</v>
       </c>
@@ -7058,7 +7052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="593" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B593" s="2" t="s">
         <v>5</v>
       </c>
@@ -7069,7 +7063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="2" t="s">
         <v>4</v>
       </c>
@@ -7080,7 +7074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="2" t="s">
         <v>4</v>
       </c>
@@ -7091,7 +7085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B596" s="2" t="s">
         <v>7</v>
       </c>
@@ -7102,7 +7096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="2" t="s">
         <v>5</v>
       </c>
@@ -7113,7 +7107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B598" s="2" t="s">
         <v>5</v>
       </c>
@@ -7124,7 +7118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="2" t="s">
         <v>7</v>
       </c>
@@ -7135,7 +7129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="2" t="s">
         <v>7</v>
       </c>
@@ -7146,7 +7140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="2" t="s">
         <v>5</v>
       </c>
@@ -7157,7 +7151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="2" t="s">
         <v>5</v>
       </c>
@@ -7168,7 +7162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="603" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B603" s="2" t="s">
         <v>3</v>
       </c>
@@ -7179,7 +7173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="2" t="s">
         <v>5</v>
       </c>
@@ -7190,7 +7184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="605" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="2" t="s">
         <v>5</v>
       </c>
@@ -7201,7 +7195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="606" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="2" t="s">
         <v>4</v>
       </c>
@@ -7212,7 +7206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="2" t="s">
         <v>4</v>
       </c>
@@ -7223,7 +7217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B608" s="2" t="s">
         <v>4</v>
       </c>
@@ -7234,7 +7228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="609" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="2" t="s">
         <v>7</v>
       </c>
@@ -7245,7 +7239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="610" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="2" t="s">
         <v>3</v>
       </c>
@@ -7256,7 +7250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="2" t="s">
         <v>7</v>
       </c>
@@ -7267,7 +7261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B612" s="2" t="s">
         <v>4</v>
       </c>
@@ -7278,7 +7272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B613" s="2" t="s">
         <v>3</v>
       </c>
@@ -7289,7 +7283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="614" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B614" s="2" t="s">
         <v>5</v>
       </c>
@@ -7300,7 +7294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B615" s="2" t="s">
         <v>5</v>
       </c>
@@ -7311,7 +7305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="616" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B616" s="2" t="s">
         <v>5</v>
       </c>
@@ -7322,7 +7316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B617" s="2" t="s">
         <v>5</v>
       </c>
@@ -7333,7 +7327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B618" s="2" t="s">
         <v>4</v>
       </c>
@@ -7344,7 +7338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="619" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B619" s="2" t="s">
         <v>3</v>
       </c>
@@ -7355,7 +7349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B620" s="2" t="s">
         <v>5</v>
       </c>
@@ -7366,7 +7360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="621" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="2" t="s">
         <v>7</v>
       </c>
@@ -7377,7 +7371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="622" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="2" t="s">
         <v>5</v>
       </c>
@@ -7388,7 +7382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B623" s="2" t="s">
         <v>5</v>
       </c>
@@ -7399,7 +7393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="624" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="2" t="s">
         <v>4</v>
       </c>
@@ -7410,7 +7404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="625" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="2" t="s">
         <v>4</v>
       </c>
@@ -7421,7 +7415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="2" t="s">
         <v>3</v>
       </c>
@@ -7432,7 +7426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="627" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="2" t="s">
         <v>5</v>
       </c>
@@ -7443,7 +7437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B628" s="2" t="s">
         <v>7</v>
       </c>
@@ -7454,7 +7448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="2" t="s">
         <v>5</v>
       </c>
@@ -7465,7 +7459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="2" t="s">
         <v>4</v>
       </c>
@@ -7476,7 +7470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="631" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="2" t="s">
         <v>4</v>
       </c>
@@ -7487,7 +7481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="2" t="s">
         <v>4</v>
       </c>
@@ -7498,7 +7492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="633" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B633" s="2" t="s">
         <v>3</v>
       </c>
@@ -7509,7 +7503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="2" t="s">
         <v>3</v>
       </c>
@@ -7520,7 +7514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="635" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="2" t="s">
         <v>4</v>
       </c>
@@ -7531,7 +7525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="2" t="s">
         <v>7</v>
       </c>
@@ -7542,7 +7536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="637" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="2" t="s">
         <v>5</v>
       </c>
@@ -7553,7 +7547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="2" t="s">
         <v>7</v>
       </c>
@@ -7564,7 +7558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="639" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B639" s="2" t="s">
         <v>7</v>
       </c>
@@ -7575,7 +7569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="640" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="2" t="s">
         <v>5</v>
       </c>
@@ -7586,7 +7580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" s="2" t="s">
         <v>5</v>
       </c>
@@ -7597,7 +7591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" s="2" t="s">
         <v>5</v>
       </c>
@@ -7608,7 +7602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="2" t="s">
         <v>5</v>
       </c>
@@ -7619,7 +7613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="644" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B644" s="2" t="s">
         <v>3</v>
       </c>
@@ -7630,7 +7624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="645" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="2" t="s">
         <v>5</v>
       </c>
@@ -7641,7 +7635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="2" t="s">
         <v>5</v>
       </c>
@@ -7652,7 +7646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="647" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="2" t="s">
         <v>4</v>
       </c>
@@ -7663,7 +7657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="648" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="2" t="s">
         <v>4</v>
       </c>
@@ -7674,7 +7668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="649" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B649" s="2" t="s">
         <v>4</v>
       </c>
@@ -7685,7 +7679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="2" t="s">
         <v>5</v>
       </c>
@@ -7696,7 +7690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="2" t="s">
         <v>7</v>
       </c>
@@ -7707,7 +7701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="652" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="2" t="s">
         <v>4</v>
       </c>
@@ -7718,7 +7712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="653" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="2" t="s">
         <v>5</v>
       </c>
@@ -7729,7 +7723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="654" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B654" s="2" t="s">
         <v>4</v>
       </c>
@@ -7740,7 +7734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="655" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B655" s="2" t="s">
         <v>4</v>
       </c>
@@ -7751,7 +7745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="656" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B656" s="2" t="s">
         <v>7</v>
       </c>
@@ -7762,7 +7756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="657" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B657" s="2" t="s">
         <v>5</v>
       </c>
@@ -7773,7 +7767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B658" s="2" t="s">
         <v>5</v>
       </c>
@@ -7784,7 +7778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B659" s="2" t="s">
         <v>5</v>
       </c>
@@ -7795,7 +7789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="660" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="2" t="s">
         <v>7</v>
       </c>
@@ -7806,7 +7800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B661" s="2" t="s">
         <v>4</v>
       </c>
@@ -7817,7 +7811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="662" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B662" s="2" t="s">
         <v>5</v>
       </c>
@@ -7828,7 +7822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B663" s="2" t="s">
         <v>5</v>
       </c>
@@ -7839,7 +7833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="664" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B664" s="2" t="s">
         <v>7</v>
       </c>
@@ -7850,7 +7844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B665" s="2" t="s">
         <v>4</v>
       </c>
@@ -7861,7 +7855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="666" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B666" s="2" t="s">
         <v>7</v>
       </c>
@@ -7872,7 +7866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B667" s="2" t="s">
         <v>3</v>
       </c>
@@ -7883,7 +7877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="668" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B668" s="2" t="s">
         <v>5</v>
       </c>
@@ -7894,7 +7888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="669" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B669" s="2" t="s">
         <v>5</v>
       </c>
@@ -7905,7 +7899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="670" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B670" s="2" t="s">
         <v>3</v>
       </c>
@@ -7916,7 +7910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="671" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B671" s="2" t="s">
         <v>4</v>
       </c>
@@ -7927,7 +7921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B672" s="2" t="s">
         <v>5</v>
       </c>
@@ -7938,7 +7932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="673" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B673" s="2" t="s">
         <v>3</v>
       </c>
@@ -7949,7 +7943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="674" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B674" s="2" t="s">
         <v>5</v>
       </c>
@@ -7960,7 +7954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="675" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B675" s="2" t="s">
         <v>3</v>
       </c>
@@ -7971,7 +7965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="676" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B676" s="2" t="s">
         <v>5</v>
       </c>
@@ -7982,7 +7976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="677" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B677" s="2" t="s">
         <v>3</v>
       </c>
@@ -7993,7 +7987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="678" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B678" s="2" t="s">
         <v>3</v>
       </c>
@@ -8004,7 +7998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="679" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B679" s="2" t="s">
         <v>5</v>
       </c>
@@ -8015,7 +8009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="680" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B680" s="2" t="s">
         <v>4</v>
       </c>
